--- a/Documentation/TestsAndCharts.xlsx
+++ b/Documentation/TestsAndCharts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F051F-0E22-466A-B5B1-73D079489938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C8087-2BF4-4EE9-8AD3-2CE81F748742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="1080" windowWidth="34125" windowHeight="19740" xr2:uid="{220EE5E5-C4A7-4A65-B2E7-EC1099759D14}"/>
+    <workbookView xWindow="22140" yWindow="300" windowWidth="33990" windowHeight="19500" xr2:uid="{220EE5E5-C4A7-4A65-B2E7-EC1099759D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature Output" sheetId="4" r:id="rId1"/>
@@ -735,6 +735,15 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -841,15 +850,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -886,6 +886,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Temperature delta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -922,15 +947,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Target to measured delta</c:v>
+            <c:v>Target to measured temperature delta</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1708,757 +1733,757 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="251"/>
                 <c:pt idx="0">
-                  <c:v>0.47551583466787406</c:v>
+                  <c:v>-0.47551583466787406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27551583466787477</c:v>
+                  <c:v>-0.27551583466787477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5515834667875481E-2</c:v>
+                  <c:v>-7.5515834667875481E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12448416533212736</c:v>
+                  <c:v>0.12448416533212736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5105511562876579</c:v>
+                  <c:v>-0.5105511562876579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31055115628765861</c:v>
+                  <c:v>-0.31055115628765861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11055115628765932</c:v>
+                  <c:v>-0.11055115628765932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.9448843712339965E-2</c:v>
+                  <c:v>8.9448843712339965E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.28944884371234281</c:v>
+                  <c:v>0.28944884371234281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34898464125019402</c:v>
+                  <c:v>-0.34898464125019402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14898464125019473</c:v>
+                  <c:v>-0.14898464125019473</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.1015358749804562E-2</c:v>
+                  <c:v>5.1015358749804562E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.25101535874980385</c:v>
+                  <c:v>0.25101535874980385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36453227114665054</c:v>
+                  <c:v>-0.36453227114665054</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16453227114665125</c:v>
+                  <c:v>-0.16453227114665125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5467728853348035E-2</c:v>
+                  <c:v>3.5467728853348035E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.23546772885334732</c:v>
+                  <c:v>0.23546772885334732</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3465500813868303</c:v>
+                  <c:v>-0.3465500813868303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14655008138682746</c:v>
+                  <c:v>-0.14655008138682746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.3449918613171832E-2</c:v>
+                  <c:v>5.3449918613171832E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.25344991861317112</c:v>
+                  <c:v>0.25344991861317112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.29740878284302497</c:v>
+                  <c:v>-0.29740878284302497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7408782843025676E-2</c:v>
+                  <c:v>-9.7408782843025676E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.10259121715697717</c:v>
+                  <c:v>0.10259121715697717</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.37483022647957043</c:v>
+                  <c:v>-0.37483022647957043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17483022647957114</c:v>
+                  <c:v>-0.17483022647957114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.5169773520428151E-2</c:v>
+                  <c:v>2.5169773520428151E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.22516977352042744</c:v>
+                  <c:v>0.22516977352042744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30322865405357646</c:v>
+                  <c:v>-0.30322865405357646</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10322865405357717</c:v>
+                  <c:v>-0.10322865405357717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.6771345946422116E-2</c:v>
+                  <c:v>9.6771345946422116E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3729262483955047</c:v>
+                  <c:v>-0.3729262483955047</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17292624839550541</c:v>
+                  <c:v>-0.17292624839550541</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.7073751604497431E-2</c:v>
+                  <c:v>2.7073751604497431E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.22707375160449672</c:v>
+                  <c:v>0.22707375160449672</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25581595529575907</c:v>
+                  <c:v>-0.25581595529575907</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5815955295759778E-2</c:v>
+                  <c:v>-5.5815955295759778E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.14418404470423951</c:v>
+                  <c:v>0.14418404470423951</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.28480439536016178</c:v>
+                  <c:v>-0.28480439536016178</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.4804395360162488E-2</c:v>
+                  <c:v>-8.4804395360162488E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.1151956046398368</c:v>
+                  <c:v>0.1151956046398368</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.29561283570653885</c:v>
+                  <c:v>-0.29561283570653885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.5612835706539556E-2</c:v>
+                  <c:v>-9.5612835706539556E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.10438716429346329</c:v>
+                  <c:v>0.10438716429346329</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28920962930608241</c:v>
+                  <c:v>-0.28920962930608241</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.9209629306083116E-2</c:v>
+                  <c:v>-8.9209629306083116E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.11079037069391617</c:v>
+                  <c:v>0.11079037069391617</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.26648919519940506</c:v>
+                  <c:v>-0.26648919519940506</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.6489195199402218E-2</c:v>
+                  <c:v>-6.6489195199402218E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.13351080480059707</c:v>
+                  <c:v>0.13351080480059707</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.22827928665293484</c:v>
+                  <c:v>-0.22827928665293484</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8279286652935554E-2</c:v>
+                  <c:v>-2.8279286652935554E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.17172071334706374</c:v>
+                  <c:v>0.17172071334706374</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.20374638197929329</c:v>
+                  <c:v>-0.20374638197929329</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7463819792940001E-3</c:v>
+                  <c:v>-3.7463819792940001E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.19625361802070529</c:v>
+                  <c:v>0.19625361802070529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10840639404669972</c:v>
+                  <c:v>-0.10840639404669972</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-9.1593605953299573E-2</c:v>
+                  <c:v>9.1593605953299573E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.29159360595330241</c:v>
+                  <c:v>0.29159360595330241</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.5115115774423629E-2</c:v>
+                  <c:v>-5.5115115774423629E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.14488488422557566</c:v>
+                  <c:v>0.14488488422557566</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1614470603844218</c:v>
+                  <c:v>-0.1614470603844218</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.8552939615577486E-2</c:v>
+                  <c:v>3.8552939615577486E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.23855293961558033</c:v>
+                  <c:v>0.23855293961558033</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.565757731302412E-2</c:v>
+                  <c:v>-5.565757731302412E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.14434242268697517</c:v>
+                  <c:v>0.14434242268697517</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.13828410254147983</c:v>
+                  <c:v>-0.13828410254147983</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-6.1715897458519464E-2</c:v>
+                  <c:v>6.1715897458519464E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.26171589745852231</c:v>
+                  <c:v>0.26171589745852231</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.8297669765763374E-3</c:v>
+                  <c:v>-9.8297669765763374E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.19017023302342295</c:v>
+                  <c:v>0.19017023302342295</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0766227272859084E-2</c:v>
+                  <c:v>-7.0766227272859084E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.12923377272714198</c:v>
+                  <c:v>0.12923377272714198</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.19180878461811268</c:v>
+                  <c:v>-0.19180878461811268</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.1912153818866074E-3</c:v>
+                  <c:v>8.1912153818866074E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.20819121538188767</c:v>
+                  <c:v>0.20819121538188767</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.9862896646957466E-2</c:v>
+                  <c:v>-9.9862896646957466E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.1001371033530436</c:v>
+                  <c:v>0.1001371033530436</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.1542581361218041E-2</c:v>
+                  <c:v>-6.1542581361218041E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.13845741863878125</c:v>
+                  <c:v>0.13845741863878125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.282620662019724E-2</c:v>
+                  <c:v>-8.282620662019724E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.11717379337980205</c:v>
+                  <c:v>0.11717379337980205</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.5520836242561913E-2</c:v>
+                  <c:v>-9.5520836242561913E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.10447916375743738</c:v>
+                  <c:v>0.10447916375743738</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.12101482777990036</c:v>
+                  <c:v>-0.12101482777990036</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-7.8985172220100708E-2</c:v>
+                  <c:v>7.8985172220100708E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.11707964435825957</c:v>
+                  <c:v>-0.11707964435825957</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-8.2920355641741494E-2</c:v>
+                  <c:v>8.2920355641741494E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.12573095351400276</c:v>
+                  <c:v>-0.12573095351400276</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.4269046485996526E-2</c:v>
+                  <c:v>7.4269046485996526E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.6534908612279082E-2</c:v>
+                  <c:v>-8.6534908612279082E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.11346509138772021</c:v>
+                  <c:v>0.11346509138772021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.9948987015333373E-2</c:v>
+                  <c:v>-7.9948987015333373E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.12005101298466592</c:v>
+                  <c:v>0.12005101298466592</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.6653475072046646E-2</c:v>
+                  <c:v>-4.6653475072046646E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.15334652492795442</c:v>
+                  <c:v>0.15334652492795442</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.3003238699739228E-2</c:v>
+                  <c:v>-6.3003238699739228E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.13699676130026184</c:v>
+                  <c:v>0.13699676130026184</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-3.957441119910321E-2</c:v>
+                  <c:v>3.957441119910321E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.2395744111991025</c:v>
+                  <c:v>0.2395744111991025</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.11021093535954662</c:v>
+                  <c:v>0.11021093535954662</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.9446297807069328E-2</c:v>
+                  <c:v>-4.9446297807069328E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.15055370219293174</c:v>
+                  <c:v>0.15055370219293174</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.7665685170347629E-2</c:v>
+                  <c:v>-3.7665685170347629E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.16233431482965166</c:v>
+                  <c:v>0.16233431482965166</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-6.7485066190400289E-2</c:v>
+                  <c:v>6.7485066190400289E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.6919132933419547E-2</c:v>
+                  <c:v>-5.6919132933419547E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.14308086706658152</c:v>
+                  <c:v>0.14308086706658152</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.5986894602121779E-2</c:v>
+                  <c:v>-2.5986894602121779E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.17401310539787751</c:v>
+                  <c:v>0.17401310539787751</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.10988700292132592</c:v>
+                  <c:v>0.10988700292132592</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.7576802055207423E-2</c:v>
+                  <c:v>-4.7576802055207423E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.15242319794479275</c:v>
+                  <c:v>0.15242319794479275</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-6.4728210523631091E-2</c:v>
+                  <c:v>6.4728210523631091E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.4427066078419166E-2</c:v>
+                  <c:v>-3.4427066078419166E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.16557293392158012</c:v>
+                  <c:v>0.16557293392158012</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-7.0932187978964834E-2</c:v>
+                  <c:v>7.0932187978964834E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.4757963333270219E-2</c:v>
+                  <c:v>-6.4757963333270219E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.13524203666672996</c:v>
+                  <c:v>0.13524203666672996</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-7.9753915554593213E-2</c:v>
+                  <c:v>7.9753915554593213E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-2.7581439453753909E-2</c:v>
+                  <c:v>2.7581439453753909E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.22758143945375409</c:v>
+                  <c:v>0.22758143945375409</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-9.1541469955736865E-2</c:v>
+                  <c:v>9.1541469955736865E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-3.2560331387164965E-2</c:v>
+                  <c:v>3.2560331387164965E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.7098160676802827E-2</c:v>
+                  <c:v>-3.7098160676802827E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.16290183932319646</c:v>
+                  <c:v>0.16290183932319646</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-9.6956419398704696E-2</c:v>
+                  <c:v>9.6956419398704696E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-3.4628348898061212E-2</c:v>
+                  <c:v>3.4628348898061212E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.23462834889806139</c:v>
+                  <c:v>0.23462834889806139</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.175825491040146</c:v>
+                  <c:v>0.175825491040146</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.14718052971154716</c:v>
+                  <c:v>0.14718052971154716</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-4.2107365353412973E-2</c:v>
+                  <c:v>4.2107365353412973E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.9697008588345888E-2</c:v>
+                  <c:v>1.9697008588345888E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.21969700858834607</c:v>
+                  <c:v>0.21969700858834607</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.16130223172308655</c:v>
+                  <c:v>0.16130223172308655</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.13169440324379833</c:v>
+                  <c:v>0.13169440324379833</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-7.9770419310730034E-2</c:v>
+                  <c:v>7.9770419310730034E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.1130107125115991E-2</c:v>
+                  <c:v>3.1130107125115991E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.23113010712511617</c:v>
+                  <c:v>0.23113010712511617</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.19789021898305004</c:v>
+                  <c:v>0.19789021898305004</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.21575197330220375</c:v>
+                  <c:v>0.21575197330220375</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.13982040697575493</c:v>
+                  <c:v>0.13982040697575493</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.11486426492499735</c:v>
+                  <c:v>0.11486426492499735</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-9.2546597961008947E-2</c:v>
+                  <c:v>9.2546597961008947E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-9.5819742014102705E-2</c:v>
+                  <c:v>9.5819742014102705E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-6.6966477042583517E-2</c:v>
+                  <c:v>6.6966477042583517E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-4.0852927495987013E-2</c:v>
+                  <c:v>4.0852927495987013E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.24085292749598597</c:v>
+                  <c:v>0.24085292749598597</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.21741754957797671</c:v>
+                  <c:v>0.21741754957797671</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-0.25156268129314063</c:v>
+                  <c:v>0.25156268129314063</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-0.24355626459323787</c:v>
+                  <c:v>0.24355626459323787</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.20554696417590554</c:v>
+                  <c:v>0.20554696417590554</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.19176180331684367</c:v>
+                  <c:v>0.19176180331684367</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.18038595742676788</c:v>
+                  <c:v>0.18038595742676788</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.19216548329194771</c:v>
+                  <c:v>0.19216548329194771</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.18522815532573178</c:v>
+                  <c:v>0.18522815532573178</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.20092308904875389</c:v>
+                  <c:v>0.20092308904875389</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.20833224977472131</c:v>
+                  <c:v>0.20833224977472131</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.20773040494389305</c:v>
+                  <c:v>0.20773040494389305</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.219138286406237</c:v>
+                  <c:v>0.219138286406237</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.27158767295880137</c:v>
+                  <c:v>0.27158767295880137</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.23791502181975588</c:v>
+                  <c:v>0.23791502181975588</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-8.3333175377085844E-2</c:v>
+                  <c:v>8.3333175377085844E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-9.4453161385095186E-2</c:v>
+                  <c:v>9.4453161385095186E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-9.8180783170166652E-2</c:v>
+                  <c:v>9.8180783170166652E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.12237759868317211</c:v>
+                  <c:v>0.12237759868317211</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.14823093114787511</c:v>
+                  <c:v>0.14823093114787511</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.18475128298403209</c:v>
+                  <c:v>0.18475128298403209</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.21374685915292524</c:v>
+                  <c:v>0.21374685915292524</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.23544007688065216</c:v>
+                  <c:v>0.23544007688065216</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-9.2632801106347085E-2</c:v>
+                  <c:v>9.2632801106347085E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.11928317970037128</c:v>
+                  <c:v>0.11928317970037128</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.1646557146846499</c:v>
+                  <c:v>0.1646557146846499</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.21132080840930278</c:v>
+                  <c:v>0.21132080840930278</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.24243991136927701</c:v>
+                  <c:v>0.24243991136927701</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.11753712799936888</c:v>
+                  <c:v>0.11753712799936888</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.16131857854091081</c:v>
+                  <c:v>0.16131857854091081</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.1983090775437768</c:v>
+                  <c:v>0.1983090775437768</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-8.4570507592038879E-2</c:v>
+                  <c:v>8.4570507592038879E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.14157041874824738</c:v>
+                  <c:v>0.14157041874824738</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.19183507469729388</c:v>
+                  <c:v>0.19183507469729388</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.23553976356347661</c:v>
+                  <c:v>0.23553976356347661</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.14989189861311392</c:v>
+                  <c:v>0.14989189861311392</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.21253747733202566</c:v>
+                  <c:v>0.21253747733202566</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.11098276207713109</c:v>
+                  <c:v>0.11098276207713109</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.16948543882723666</c:v>
+                  <c:v>0.16948543882723666</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.23644916810846084</c:v>
+                  <c:v>0.23644916810846084</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.16602490870409614</c:v>
+                  <c:v>0.16602490870409614</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.21432482988875812</c:v>
+                  <c:v>0.21432482988875812</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.13594016344967752</c:v>
+                  <c:v>0.13594016344967752</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.20889274118259404</c:v>
+                  <c:v>0.20889274118259404</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.12973893170638107</c:v>
+                  <c:v>0.12973893170638107</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.19864565973623804</c:v>
+                  <c:v>0.19864565973623804</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.13929881096736629</c:v>
+                  <c:v>0.13929881096736629</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.2042933071891202</c:v>
+                  <c:v>0.2042933071891202</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.1505549942502995</c:v>
+                  <c:v>0.1505549942502995</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.22502344367662985</c:v>
+                  <c:v>0.22502344367662985</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.17657671270135644</c:v>
+                  <c:v>0.17657671270135644</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.1315426552241572</c:v>
+                  <c:v>0.1315426552241572</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.19756094375071775</c:v>
+                  <c:v>0.19756094375071775</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.15138252195869484</c:v>
+                  <c:v>0.15138252195869484</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.23267304450277138</c:v>
+                  <c:v>0.23267304450277138</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.19760822532212252</c:v>
+                  <c:v>0.19760822532212252</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.16561729573287742</c:v>
+                  <c:v>0.16561729573287742</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-0.124654200103409</c:v>
+                  <c:v>0.124654200103409</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.21133595988182208</c:v>
+                  <c:v>0.21133595988182208</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-0.18685555965950229</c:v>
+                  <c:v>0.18685555965950229</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-0.16519281945146957</c:v>
+                  <c:v>0.16519281945146957</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.1520074128540525</c:v>
+                  <c:v>0.1520074128540525</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.24352804948699891</c:v>
+                  <c:v>0.24352804948699891</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.22293271462787345</c:v>
+                  <c:v>0.22293271462787345</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.21062318121071755</c:v>
+                  <c:v>0.21062318121071755</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.2008495764363758</c:v>
+                  <c:v>0.2008495764363758</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.19355494550744901</c:v>
+                  <c:v>0.19355494550744901</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.18332510417902093</c:v>
+                  <c:v>0.18332510417902093</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.18618402446187865</c:v>
+                  <c:v>0.18618402446187865</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.18076575870325584</c:v>
+                  <c:v>0.18076575870325584</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.17256119988297058</c:v>
+                  <c:v>0.17256119988297058</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.17704293651525482</c:v>
+                  <c:v>0.17704293651525482</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.17863554627747824</c:v>
+                  <c:v>0.17863554627747824</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.18746745311298518</c:v>
+                  <c:v>0.18746745311298518</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.1934307113024083</c:v>
+                  <c:v>0.1934307113024083</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.20643240880752245</c:v>
+                  <c:v>0.20643240880752245</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.21658684472317269</c:v>
+                  <c:v>0.21658684472317269</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.23837979605964854</c:v>
+                  <c:v>0.23837979605964854</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.1532406242348241</c:v>
+                  <c:v>0.1532406242348241</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.17039139462438513</c:v>
+                  <c:v>0.17039139462438513</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.19407446481351798</c:v>
+                  <c:v>0.19407446481351798</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.21497294453746996</c:v>
+                  <c:v>0.21497294453746996</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.15651441489628048</c:v>
+                  <c:v>0.15651441489628048</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.18634101094462885</c:v>
+                  <c:v>0.18634101094462885</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.21783631073502008</c:v>
+                  <c:v>0.21783631073502008</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.16379249883345182</c:v>
+                  <c:v>0.16379249883345182</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.20367476367119153</c:v>
+                  <c:v>0.20367476367119153</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.2365069963335209</c:v>
+                  <c:v>0.2365069963335209</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.19088096256260201</c:v>
+                  <c:v>0.19088096256260201</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.2318468616824525</c:v>
+                  <c:v>0.2318468616824525</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.19604005364191579</c:v>
+                  <c:v>0.19604005364191579</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.16345051562746349</c:v>
+                  <c:v>0.16345051562746349</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.2101373375894191</c:v>
+                  <c:v>0.2101373375894191</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.18272815722815494</c:v>
+                  <c:v>0.18272815722815494</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.22494101260057775</c:v>
+                  <c:v>0.22494101260057775</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.20259935065251256</c:v>
+                  <c:v>0.20259935065251256</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.18313644517747107</c:v>
+                  <c:v>0.18313644517747107</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.23460005449028998</c:v>
+                  <c:v>0.23460005449028998</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.21982844040240934</c:v>
+                  <c:v>0.21982844040240934</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.20035993559782739</c:v>
+                  <c:v>0.20035993559782739</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-0.1946587722894364</c:v>
+                  <c:v>0.1946587722894364</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-0.18422547096711028</c:v>
+                  <c:v>0.18422547096711028</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-0.17995227496125565</c:v>
+                  <c:v>0.17995227496125565</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-0.17813133864899555</c:v>
+                  <c:v>0.17813133864899555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2491,1556 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-59F9-4020-A789-224160C0CFA1}"/>
+              <c16:uniqueId val="{00000001-99DA-4436-900E-5C293B2F3F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Output (calculated) to measured temperature delta</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Temperature Output'!$A$2:$A$252</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.600000000000099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.200000000000101</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.6000000000000991</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.2000000000001005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.0000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.6000000000000991</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.2000000000001005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.0000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.2000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.0000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.2000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.0000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.2000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.2000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.0000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.2000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.0000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.8000000000001002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.4000000000000998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.2000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.2000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.0000000000000999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.80000000000009996</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.60000000000010101</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.20000000000009899</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.9475983006414001E-14</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.19999999999990001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.39999999999989899</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.59999999999989795</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.79999999999990101</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.99999999999990097</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.5999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.7999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.9999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.7999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.9999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-3.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-3.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-3.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-3.7999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-3.9999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-4.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-4.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-4.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-4.7999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-4.9999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-5.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-5.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-5.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-5.7999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-5.9999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-6.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-6.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-6.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-6.7999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-6.9999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-7.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-7.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-7.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-7.7999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-7.9999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-8.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-8.3999999999999009</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-8.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-8.7999999999998995</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-8.9999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-9.1999999999998998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-9.3999999999999009</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-9.5999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-9.7999999999998995</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-9.9999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-10.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-10.399999999999901</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-10.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-10.799999999999899</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-10.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-11.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-11.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-11.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-11.799999999999899</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-11.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-12.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-12.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-12.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-12.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-12.999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-13.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-13.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-13.599999999999801</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-13.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-13.999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-14.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-14.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-14.599999999999801</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-14.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-14.999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-15.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-15.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-15.599999999999801</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-15.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-15.999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-16.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-16.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-16.599999999999799</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-16.799999999999802</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-16.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-17.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-17.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-17.599999999999799</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-17.799999999999802</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-17.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-18.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-18.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-18.599999999999799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-18.799999999999802</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-18.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-19.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-19.3999999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-19.599999999999799</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-19.799999999999802</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-19.999999999999801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Temperature Output'!$F$2:$F$252</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>-0.18551583466787491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18551583466787491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18551583466787491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18551583466787491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14055115628765691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14055115628765691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14055115628765691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14055115628765691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14055115628765691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.12898464125019515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12898464125019515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.12898464125019515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12898464125019515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.12453227114665211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.12453227114665211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.12453227114665211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.12453227114665211</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.11655008138682987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.11655008138682987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.11655008138682987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.11655008138682987</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.10740878284302369</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.10740878284302369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.10740878284302369</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.4830226479570143E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.4830226479570143E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.4830226479570143E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4830226479570143E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.3228654053579589E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.3228654053579589E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.3228654053579589E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.2926248395504416E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.2926248395504416E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.2926248395504416E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.2926248395504416E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.5815955295757789E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.5815955295757789E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.5815955295757789E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.4804395360164904E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.4804395360164904E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.4804395360164904E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.5612835706537282E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.5612835706537282E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.5612835706537282E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9209629306082832E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.9209629306082832E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.9209629306082832E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.4891951994034969E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.4891951994034969E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.4891951994034969E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1720713347063594E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1720713347063594E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1720713347063594E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.7463819792940001E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.7463819792940001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7463819792940001E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1593605953300852E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1593605953300852E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1593605953300852E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4884884225576656E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4884884225576656E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8552939615579476E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8552939615579476E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8552939615579476E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4342422686973748E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.4342422686973748E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.1715897458521454E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.1715897458521454E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.1715897458521454E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.0170233023423947E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0170233023423947E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.9233772727240961E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.9233772727240961E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.1912153819878597E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.1912153819878597E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.1912153819878597E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.986289664685728E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-4.986289664685728E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8457418638881293E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8457418638881293E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7173793379901454E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7173793379901454E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4479163757536355E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.4479163757536355E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.8985172220201036E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8985172220201036E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.2920355641840047E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.2920355641840047E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4269046486096855E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.4269046486096855E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.3465091387820749E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.3465091387820749E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0051012984765109E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0051012984765109E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.3346524928054251E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.3346524928054251E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.9967613003605322E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.9967613003605322E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.9574411199203823E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.9574411199203823E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.10021093535964631</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.0553702193030929E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.0553702193030929E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.2334314829751918E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.2334314829751918E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.7485066190499552E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.3080867066680497E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.3080867066680497E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.4013105397977981E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.4013105397977981E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.9887002921425605E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.2423197944892586E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.2423197944892586E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.4728210523731242E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.5572933921680416E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.5572933921680416E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.0932187979064771E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.5242036666829577E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.5242036666829577E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.9753915554692476E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.11758143945385413</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.11758143945385413</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.1541469955836767E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.2560331387265151E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.2901839323296542E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.2901839323296542E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.695641939880506E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.10462834889816097</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.10462834889816097</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.10582549104024608</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.13718052971164774</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.210736535351316E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.1196970085884459</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.1196970085884459</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.11130223172318665</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.13169440324389825</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.11977041931083043</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.11113010712521598</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.11113010712521598</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.11789021898315033</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.16575197330230385</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.11982040697585483</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.12486426492509728</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.1325465979611089</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.1558197420142029</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.1469664770426834</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.14085292749608702</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.14085292749608702</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.13741754957807872</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.1815626812932396</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.18355626459333735</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.15554696417600553</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.15176180331694467</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.14038595742686999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.15216548329204671</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.14522815532583078</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.16092308904885377</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.16833224977482142</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.15773040494399315</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.15913828640633709</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.20158767295890123</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.15791502181985617</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.17333317537718607</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.16445316138519495</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.14818078317026684</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.15237759868327183</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.15823093114797526</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.164751282984132</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.16374685915302489</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.16544007688075224</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.15263280110644661</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.14928317970047189</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.16465571468475027</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.17132080840940223</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.16243991136937641</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.16753712799946907</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.16131857854101117</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.15830907754387713</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.15457050759213864</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.17157041874834711</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.17183507469739467</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.16553976356357669</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.17989189861321364</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.18253747733212577</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.17098276207723107</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.17948543882733681</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.18644916810856138</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.19602490870419587</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.18432482988885823</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.17594016344977703</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.18889274118269483</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.17973893170648125</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.17864565973633795</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.17929881096746669</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.17429330718922031</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.18055499425039834</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.18502344367673018</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.1865767127014557</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.19154265522425717</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.17756094375081766</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.18138252195879367</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.18267304450287192</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.17760822532222242</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.18561729573297647</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.17465420010350918</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.18133595988192219</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.17685555965960198</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.18519281945166988</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.1920074128541529</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.19352804948709945</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.19293271462797357</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.19062318121091693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.19084957643657674</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.19355494550754848</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.19332510417922144</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.20618402446207895</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.20076575870345614</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.19256119988317089</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.19704293651545335</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.18863554627767876</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.1974674531131857</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.19343071130260725</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.19643240880772339</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.19658684472337207</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.19837979605984835</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.18324062423502419</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.19039139462458543</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.18407446481371892</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.18497294453766955</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.18651441489648057</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.18634101094482958</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.19783631073521946</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.1937924988336519</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.19367476367139247</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.19650699633372071</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.19088096256280096</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.1918468616826523</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.19604005364211474</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.20345051562766514</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.20013733758961649</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.20272815722835347</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.20494101260077713</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.20259935065271151</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.20313644517767315</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.20460005449048779</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.20982844040260673</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.20035993559802634</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.20465877228963691</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.20422547096731236</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.20995227496145219</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.20813133864919564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99DA-4436-900E-5C293B2F3F22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2479,12 +4053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1620182607"/>
-        <c:axId val="1620180207"/>
-        <c:extLst/>
+        <c:axId val="463483647"/>
+        <c:axId val="463486047"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1620182607"/>
+        <c:axId val="463483647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +4100,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620180207"/>
+        <c:crossAx val="463486047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2535,7 +4108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1620180207"/>
+        <c:axId val="463486047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +4159,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620182607"/>
+        <c:crossAx val="463483647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6849,10 +8422,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -9617,22 +11193,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40464AC-5B77-AA55-948F-3E78C4B78A1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0DC262-576E-98D8-1A88-0CBD25733FC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9827,14 +11403,14 @@
     <tableColumn id="4" xr3:uid="{E001D0AB-D82C-44BB-A785-82077C3C61C1}" name="Measured Temp." dataDxfId="9">
       <calculatedColumnFormula>1/('NTC PAW-A2W-TSOD'!$J$12+'NTC PAW-A2W-TSOD'!$J$13*LN(C2)+'NTC PAW-A2W-TSOD'!$J$14*(LN(C2))^3)-273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74416906-716E-412E-B88C-C164207158A5}" name="Delta Target-Output Temp." dataDxfId="8">
-      <calculatedColumnFormula>A2-B2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{74416906-716E-412E-B88C-C164207158A5}" name="Delta Target-Output Temp." dataDxfId="0">
+      <calculatedColumnFormula>B2-A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{23A9ADD3-43D2-4900-BAFC-747AC4523E80}" name="Delta Measured-Output Temp." dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{23A9ADD3-43D2-4900-BAFC-747AC4523E80}" name="Delta Measured-Output Temp." dataDxfId="2">
       <calculatedColumnFormula>D2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{65679B6B-2E08-456F-A69E-47DE0860122A}" name="Delta Target-Measured Temp." dataDxfId="6">
-      <calculatedColumnFormula>A2-D2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{65679B6B-2E08-456F-A69E-47DE0860122A}" name="Delta Target-Measured Temp." dataDxfId="1">
+      <calculatedColumnFormula>D2-A2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9842,12 +11418,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EEBA666-74BE-4DE7-9AE1-15319F164F48}" name="Tabelle3" displayName="Tabelle3" ref="A1:C32" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EEBA666-74BE-4DE7-9AE1-15319F164F48}" name="Tabelle3" displayName="Tabelle3" ref="A1:C32" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:C32" xr:uid="{5EEBA666-74BE-4DE7-9AE1-15319F164F48}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CA441784-953B-4BEB-9229-E99E24707408}" name="Temp C" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DF9B5B54-1C02-4736-A33F-FF7440E74333}" name="k Ohm" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{26E6E83D-02A2-4D8F-852A-F35CD3D631D6}" name="Ohm" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{CA441784-953B-4BEB-9229-E99E24707408}" name="Temp C" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DF9B5B54-1C02-4736-A33F-FF7440E74333}" name="k Ohm" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{26E6E83D-02A2-4D8F-852A-F35CD3D631D6}" name="Ohm" dataDxfId="3">
       <calculatedColumnFormula>B2*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10232,16 +11808,16 @@
         <v>29.524484165332126</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E33" si="0">A2-B2</f>
-        <v>0.28999999999999915</v>
+        <f t="shared" ref="E2:E65" si="0">B2-A2</f>
+        <v>-0.28999999999999915</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
+        <f t="shared" ref="F2:F65" si="1">D2-B2</f>
         <v>-0.18551583466787491</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G33" si="2">A2-D2</f>
-        <v>0.47551583466787406</v>
+        <f t="shared" ref="G2:G65" si="2">D2-A2</f>
+        <v>-0.47551583466787406</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -10260,7 +11836,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-8.9999999999999858E-2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="1"/>
@@ -10268,7 +11844,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="2"/>
-        <v>0.27551583466787477</v>
+        <v>-0.27551583466787477</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -10287,7 +11863,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10999999999999943</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
@@ -10295,7 +11871,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>7.5515834667875481E-2</v>
+        <v>-7.5515834667875481E-2</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -10314,7 +11890,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.31000000000000227</v>
+        <v>0.31000000000000227</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
@@ -10322,7 +11898,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>-0.12448416533212736</v>
+        <v>0.12448416533212736</v>
       </c>
       <c r="W5"/>
     </row>
@@ -10342,7 +11918,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.37000000000000099</v>
+        <v>-0.37000000000000099</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
@@ -10350,7 +11926,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0.5105511562876579</v>
+        <v>-0.5105511562876579</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -10369,7 +11945,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.17000000000000171</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -10377,7 +11953,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>0.31055115628765861</v>
+        <v>-0.31055115628765861</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -10396,7 +11972,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9999999999997584E-2</v>
+        <v>2.9999999999997584E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -10404,7 +11980,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.11055115628765932</v>
+        <v>-0.11055115628765932</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -10423,7 +11999,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.22999999999999687</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -10431,7 +12007,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>-8.9448843712339965E-2</v>
+        <v>8.9448843712339965E-2</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -10450,7 +12026,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.42999999999999972</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
@@ -10458,7 +12034,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>-0.28944884371234281</v>
+        <v>0.28944884371234281</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -10477,7 +12053,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.21999999999999886</v>
+        <v>-0.21999999999999886</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -10485,7 +12061,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>0.34898464125019402</v>
+        <v>-0.34898464125019402</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -10504,7 +12080,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>1.9999999999999574E-2</v>
+        <v>-1.9999999999999574E-2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -10512,7 +12088,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>0.14898464125019473</v>
+        <v>-0.14898464125019473</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -10531,7 +12107,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17999999999999972</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
@@ -10539,7 +12115,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>-5.1015358749804562E-2</v>
+        <v>5.1015358749804562E-2</v>
       </c>
       <c r="AG13" s="49"/>
     </row>
@@ -10559,7 +12135,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.37999999999999901</v>
+        <v>0.37999999999999901</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -10567,7 +12143,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>-0.25101535874980385</v>
+        <v>0.25101535874980385</v>
       </c>
       <c r="AG14" s="49"/>
     </row>
@@ -10587,7 +12163,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23999999999999844</v>
+        <v>-0.23999999999999844</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
@@ -10595,7 +12171,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>0.36453227114665054</v>
+        <v>-0.36453227114665054</v>
       </c>
       <c r="AG15" s="49"/>
     </row>
@@ -10615,7 +12191,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>3.9999999999999147E-2</v>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -10623,7 +12199,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0.16453227114665125</v>
+        <v>-0.16453227114665125</v>
       </c>
       <c r="AG16" s="49"/>
     </row>
@@ -10643,7 +12219,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.16000000000000014</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
@@ -10651,7 +12227,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5467728853348035E-2</v>
+        <v>3.5467728853348035E-2</v>
       </c>
       <c r="AG17" s="49"/>
     </row>
@@ -10671,7 +12247,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.35999999999999943</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -10679,7 +12255,7 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>-0.23546772885334732</v>
+        <v>0.23546772885334732</v>
       </c>
       <c r="AG18" s="49"/>
     </row>
@@ -10699,7 +12275,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>0.23000000000000043</v>
+        <v>-0.23000000000000043</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -10707,7 +12283,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>0.3465500813868303</v>
+        <v>-0.3465500813868303</v>
       </c>
       <c r="AG19" s="49"/>
     </row>
@@ -10727,7 +12303,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>2.9999999999997584E-2</v>
+        <v>-2.9999999999997584E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
@@ -10735,7 +12311,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>0.14655008138682746</v>
+        <v>-0.14655008138682746</v>
       </c>
       <c r="AG20" s="49"/>
     </row>
@@ -10755,7 +12331,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17000000000000171</v>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -10763,7 +12339,7 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>-5.3449918613171832E-2</v>
+        <v>5.3449918613171832E-2</v>
       </c>
       <c r="AG21" s="49"/>
     </row>
@@ -10783,7 +12359,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.37000000000000099</v>
+        <v>0.37000000000000099</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
@@ -10791,7 +12367,7 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>-0.25344991861317112</v>
+        <v>0.25344991861317112</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -10810,7 +12386,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>0.19000000000000128</v>
+        <v>-0.19000000000000128</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
@@ -10818,7 +12394,7 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>0.29740878284302497</v>
+        <v>-0.29740878284302497</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -10837,7 +12413,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9999999999980105E-3</v>
+        <v>9.9999999999980105E-3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
@@ -10845,7 +12421,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>9.7408782843025676E-2</v>
+        <v>-9.7408782843025676E-2</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -10864,7 +12440,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.21000000000000085</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -10872,7 +12448,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
-        <v>-0.10259121715697717</v>
+        <v>0.10259121715697717</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -10891,7 +12467,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>0.32000000000000028</v>
+        <v>-0.32000000000000028</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -10899,7 +12475,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="2"/>
-        <v>0.37483022647957043</v>
+        <v>-0.37483022647957043</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -10918,7 +12494,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>0.12000000000000099</v>
+        <v>-0.12000000000000099</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -10926,7 +12502,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="2"/>
-        <v>0.17483022647957114</v>
+        <v>-0.17483022647957114</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -10945,7 +12521,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>-7.9999999999998295E-2</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -10953,7 +12529,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5169773520428151E-2</v>
+        <v>2.5169773520428151E-2</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -10972,7 +12548,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>-0.27999999999999758</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
@@ -10980,7 +12556,7 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="2"/>
-        <v>-0.22516977352042744</v>
+        <v>0.22516977352042744</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -10999,7 +12575,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>0.22999999999999687</v>
+        <v>-0.22999999999999687</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
@@ -11007,7 +12583,7 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>0.30322865405357646</v>
+        <v>-0.30322865405357646</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -11026,7 +12602,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>2.9999999999997584E-2</v>
+        <v>-2.9999999999997584E-2</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
@@ -11034,7 +12610,7 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="2"/>
-        <v>0.10322865405357717</v>
+        <v>-0.10322865405357717</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -11053,7 +12629,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17000000000000171</v>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -11061,7 +12637,7 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="2"/>
-        <v>-9.6771345946422116E-2</v>
+        <v>9.6771345946422116E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11080,7 +12656,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>0.32000000000000028</v>
+        <v>-0.32000000000000028</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -11088,7 +12664,7 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="2"/>
-        <v>0.3729262483955047</v>
+        <v>-0.3729262483955047</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -11106,16 +12682,16 @@
         <v>23.427073751604496</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E66" si="3">A34-B34</f>
-        <v>0.12000000000000099</v>
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000099</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F66" si="4">D34-B34</f>
+        <f t="shared" si="1"/>
         <v>-5.2926248395504416E-2</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34:G66" si="5">A34-D34</f>
-        <v>0.17292624839550541</v>
+        <f t="shared" si="2"/>
+        <v>-0.17292624839550541</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -11133,16 +12709,16 @@
         <v>23.427073751604496</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.0000000000001847E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000001847E-2</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.2926248395504416E-2</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7073751604497431E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.7073751604497431E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11160,16 +12736,16 @@
         <v>23.427073751604496</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.28000000000000114</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000114</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.2926248395504416E-2</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.22707375160449672</v>
+        <f t="shared" si="2"/>
+        <v>0.22707375160449672</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11187,16 +12763,16 @@
         <v>22.744184044704241</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="3"/>
-        <v>0.19000000000000128</v>
+        <f t="shared" si="0"/>
+        <v>-0.19000000000000128</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.5815955295757789E-2</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="5"/>
-        <v>0.25581595529575907</v>
+        <f t="shared" si="2"/>
+        <v>-0.25581595529575907</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11214,16 +12790,16 @@
         <v>22.744184044704241</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999980105E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999980105E-3</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.5815955295757789E-2</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5815955295759778E-2</v>
+        <f t="shared" si="2"/>
+        <v>-5.5815955295759778E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11241,16 +12817,16 @@
         <v>22.744184044704241</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.2099999999999973</v>
+        <f t="shared" si="0"/>
+        <v>0.2099999999999973</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.5815955295757789E-2</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.14418404470423951</v>
+        <f t="shared" si="2"/>
+        <v>0.14418404470423951</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -11268,16 +12844,16 @@
         <v>22.115195604639837</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="3"/>
-        <v>0.22999999999999687</v>
+        <f t="shared" si="0"/>
+        <v>-0.22999999999999687</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.4804395360164904E-2</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="5"/>
-        <v>0.28480439536016178</v>
+        <f t="shared" si="2"/>
+        <v>-0.28480439536016178</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -11295,16 +12871,16 @@
         <v>22.115195604639837</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9999999999997584E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.9999999999997584E-2</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.4804395360164904E-2</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="5"/>
-        <v>8.4804395360162488E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.4804395360162488E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -11322,16 +12898,16 @@
         <v>22.115195604639837</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.17000000000000171</v>
+        <f t="shared" si="0"/>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.4804395360164904E-2</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.1151956046398368</v>
+        <f t="shared" si="2"/>
+        <v>0.1151956046398368</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -11349,16 +12925,16 @@
         <v>21.504387164293462</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="3"/>
-        <v>0.26000000000000156</v>
+        <f t="shared" si="0"/>
+        <v>-0.26000000000000156</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.5612835706537282E-2</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="5"/>
-        <v>0.29561283570653885</v>
+        <f t="shared" si="2"/>
+        <v>-0.29561283570653885</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11376,16 +12952,16 @@
         <v>21.504387164293462</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="3"/>
-        <v>6.0000000000002274E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.5612835706537282E-2</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="5"/>
-        <v>9.5612835706539556E-2</v>
+        <f t="shared" si="2"/>
+        <v>-9.5612835706539556E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -11403,16 +12979,16 @@
         <v>21.504387164293462</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.14000000000000057</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.5612835706537282E-2</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.10438716429346329</v>
+        <f t="shared" si="2"/>
+        <v>0.10438716429346329</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -11430,16 +13006,16 @@
         <v>20.910790370693917</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="3"/>
-        <v>0.26999999999999957</v>
+        <f t="shared" si="0"/>
+        <v>-0.26999999999999957</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.9209629306082832E-2</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="5"/>
-        <v>0.28920962930608241</v>
+        <f t="shared" si="2"/>
+        <v>-0.28920962930608241</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -11457,16 +13033,16 @@
         <v>20.910790370693917</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="3"/>
-        <v>7.0000000000000284E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.9209629306082832E-2</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="5"/>
-        <v>8.9209629306083116E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.9209629306083116E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -11484,16 +13060,16 @@
         <v>20.910790370693917</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.12999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>0.12999999999999901</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.9209629306082832E-2</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.11079037069391617</v>
+        <f t="shared" si="2"/>
+        <v>0.11079037069391617</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -11511,16 +13087,16 @@
         <v>20.333510804800596</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="3"/>
-        <v>0.26000000000000156</v>
+        <f t="shared" si="0"/>
+        <v>-0.26000000000000156</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.4891951994034969E-3</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="5"/>
-        <v>0.26648919519940506</v>
+        <f t="shared" si="2"/>
+        <v>-0.26648919519940506</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -11538,16 +13114,16 @@
         <v>20.333510804800596</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="3"/>
-        <v>5.9999999999998721E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.9999999999998721E-2</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.4891951994034969E-3</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="5"/>
-        <v>6.6489195199402218E-2</v>
+        <f t="shared" si="2"/>
+        <v>-6.6489195199402218E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -11565,16 +13141,16 @@
         <v>20.333510804800596</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.14000000000000057</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-6.4891951994034969E-3</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.13351080480059707</v>
+        <f t="shared" si="2"/>
+        <v>0.13351080480059707</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -11592,16 +13168,16 @@
         <v>19.771720713347065</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="3"/>
-        <v>0.23999999999999844</v>
+        <f t="shared" si="0"/>
+        <v>-0.23999999999999844</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.1720713347063594E-2</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="5"/>
-        <v>0.22827928665293484</v>
+        <f t="shared" si="2"/>
+        <v>-0.22827928665293484</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11619,16 +13195,16 @@
         <v>19.771720713347065</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999147E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.1720713347063594E-2</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8279286652935554E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.8279286652935554E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -11646,16 +13222,16 @@
         <v>19.771720713347065</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.16000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.1720713347063594E-2</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.17172071334706374</v>
+        <f t="shared" si="2"/>
+        <v>0.17172071334706374</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11673,16 +13249,16 @@
         <v>19.196253618020705</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="3"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.7463819792940001E-3</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="5"/>
-        <v>0.20374638197929329</v>
+        <f t="shared" si="2"/>
+        <v>-0.20374638197929329</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11700,16 +13276,16 @@
         <v>19.196253618020705</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.7463819792940001E-3</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7463819792940001E-3</v>
+        <f t="shared" si="2"/>
+        <v>-3.7463819792940001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11727,16 +13303,16 @@
         <v>19.196253618020705</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-3.7463819792940001E-3</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.19625361802070529</v>
+        <f t="shared" si="2"/>
+        <v>0.19625361802070529</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11754,16 +13330,16 @@
         <v>18.691593605953301</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000057</v>
+        <f t="shared" si="0"/>
+        <v>-0.14000000000000057</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.1593605953300852E-2</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="5"/>
-        <v>0.10840639404669972</v>
+        <f t="shared" si="2"/>
+        <v>-0.10840639404669972</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11781,16 +13357,16 @@
         <v>18.691593605953301</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.9999999999998721E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9999999999998721E-2</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.1593605953300852E-2</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.1593605953299573E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.1593605953299573E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11808,16 +13384,16 @@
         <v>18.691593605953301</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.26000000000000156</v>
+        <f t="shared" si="0"/>
+        <v>0.26000000000000156</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.1593605953300852E-2</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.29159360595330241</v>
+        <f t="shared" si="2"/>
+        <v>0.29159360595330241</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11835,16 +13411,16 @@
         <v>18.144884884225576</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="3"/>
-        <v>7.0000000000000284E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.4884884225576656E-2</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5115115774423629E-2</v>
+        <f t="shared" si="2"/>
+        <v>-5.5115115774423629E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11862,16 +13438,16 @@
         <v>18.144884884225576</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.12999999999999901</v>
+        <f t="shared" si="0"/>
+        <v>0.12999999999999901</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.4884884225576656E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.14488488422557566</v>
+        <f t="shared" si="2"/>
+        <v>0.14488488422557566</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -11889,16 +13465,16 @@
         <v>17.638552939615579</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="3"/>
-        <v>0.19000000000000128</v>
+        <f t="shared" si="0"/>
+        <v>-0.19000000000000128</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.8552939615579476E-2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1614470603844218</v>
+        <f t="shared" si="2"/>
+        <v>-0.1614470603844218</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11916,16 +13492,16 @@
         <v>17.638552939615579</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999980105E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999980105E-3</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.8552939615579476E-2</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.8552939615577486E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8552939615577486E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11943,16 +13519,16 @@
         <v>17.638552939615579</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.21000000000000085</v>
+        <f t="shared" si="0"/>
+        <v>0.21000000000000085</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.8552939615579476E-2</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.23855293961558033</v>
+        <f t="shared" si="2"/>
+        <v>0.23855293961558033</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11970,16 +13546,16 @@
         <v>17.144342422686975</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="3"/>
-        <v>9.9999999999997868E-2</v>
+        <f t="shared" ref="E66:E129" si="3">B66-A66</f>
+        <v>-9.9999999999997868E-2</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F66:F129" si="4">D66-B66</f>
         <v>4.4342422686973748E-2</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="5"/>
-        <v>5.565757731302412E-2</v>
+        <f t="shared" ref="G66:G129" si="5">D66-A66</f>
+        <v>-5.565757731302412E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11997,16 +13573,16 @@
         <v>17.144342422686975</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E130" si="6">A67-B67</f>
-        <v>-0.10000000000000142</v>
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F130" si="7">D67-B67</f>
+        <f t="shared" si="4"/>
         <v>4.4342422686973748E-2</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="8">A67-D67</f>
-        <v>-0.14434242268697517</v>
+        <f t="shared" si="5"/>
+        <v>0.14434242268697517</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -12024,16 +13600,16 @@
         <v>16.661715897458521</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="6"/>
-        <v>0.19000000000000128</v>
+        <f t="shared" si="3"/>
+        <v>-0.19000000000000128</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.1715897458521454E-2</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="8"/>
-        <v>0.13828410254147983</v>
+        <f t="shared" si="5"/>
+        <v>-0.13828410254147983</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -12051,16 +13627,16 @@
         <v>16.661715897458521</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999980105E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999980105E-3</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.1715897458521454E-2</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.1715897458519464E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.1715897458519464E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -12078,16 +13654,16 @@
         <v>16.661715897458521</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.21000000000000085</v>
+        <f t="shared" si="3"/>
+        <v>0.21000000000000085</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.1715897458521454E-2</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.26171589745852231</v>
+        <f t="shared" si="5"/>
+        <v>0.26171589745852231</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -12105,16 +13681,16 @@
         <v>16.190170233023423</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="6"/>
-        <v>7.0000000000000284E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.0170233023423947E-2</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="8"/>
-        <v>9.8297669765763374E-3</v>
+        <f t="shared" si="5"/>
+        <v>-9.8297669765763374E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -12132,16 +13708,16 @@
         <v>16.190170233023423</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.12999999999999901</v>
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.0170233023423947E-2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.19017023302342295</v>
+        <f t="shared" si="5"/>
+        <v>0.19017023302342295</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -12159,16 +13735,16 @@
         <v>15.729233772727241</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="6"/>
-        <v>0.14000000000010004</v>
+        <f t="shared" si="3"/>
+        <v>-0.14000000000010004</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9233772727240961E-2</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="8"/>
-        <v>7.0766227272859084E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.0766227272859084E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -12186,16 +13762,16 @@
         <v>15.729233772727241</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.9999999999901021E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9999999999901021E-2</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9233772727240961E-2</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.12923377272714198</v>
+        <f t="shared" si="5"/>
+        <v>0.12923377272714198</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -12213,16 +13789,16 @@
         <v>15.208191215381987</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="6"/>
-        <v>0.20000000000010054</v>
+        <f t="shared" si="3"/>
+        <v>-0.20000000000010054</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.1912153819878597E-3</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="8"/>
-        <v>0.19180878461811268</v>
+        <f t="shared" si="5"/>
+        <v>-0.19180878461811268</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -12240,16 +13816,16 @@
         <v>15.208191215381987</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0125233984581428E-13</v>
+        <f t="shared" si="3"/>
+        <v>-1.0125233984581428E-13</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.1912153819878597E-3</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="8"/>
-        <v>-8.1912153818866074E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.1912153818866074E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -12267,16 +13843,16 @@
         <v>15.208191215381987</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.19999999999989981</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999989981</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.1912153819878597E-3</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.20819121538188767</v>
+        <f t="shared" si="5"/>
+        <v>0.20819121538188767</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -12294,16 +13870,16 @@
         <v>14.700137103353143</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="6"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.986289664685728E-2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="8"/>
-        <v>9.9862896646957466E-2</v>
+        <f t="shared" si="5"/>
+        <v>-9.9862896646957466E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -12321,16 +13897,16 @@
         <v>14.700137103353143</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.14999999999990088</v>
+        <f t="shared" si="3"/>
+        <v>0.14999999999990088</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-4.986289664685728E-2</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.1001371033530436</v>
+        <f t="shared" si="5"/>
+        <v>0.1001371033530436</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -12348,16 +13924,16 @@
         <v>14.338457418638882</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="6"/>
-        <v>9.0000000000099334E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.0000000000099334E-2</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.8457418638881293E-2</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="8"/>
-        <v>6.1542581361218041E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.1542581361218041E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -12375,16 +13951,16 @@
         <v>14.338457418638882</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.10999999999989996</v>
+        <f t="shared" si="3"/>
+        <v>0.10999999999989996</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.8457418638881293E-2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.13845741863878125</v>
+        <f t="shared" si="5"/>
+        <v>0.13845741863878125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -12402,16 +13978,16 @@
         <v>13.917173793379902</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="6"/>
-        <v>0.12000000000009869</v>
+        <f t="shared" si="3"/>
+        <v>-0.12000000000009869</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.7173793379901454E-2</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="8"/>
-        <v>8.282620662019724E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.282620662019724E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -12429,16 +14005,16 @@
         <v>13.917173793379902</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.9999999999900595E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.9999999999900595E-2</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.7173793379901454E-2</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.11717379337980205</v>
+        <f t="shared" si="5"/>
+        <v>0.11717379337980205</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -12456,16 +14032,16 @@
         <v>13.504479163757537</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="6"/>
-        <v>0.14000000000009827</v>
+        <f t="shared" si="3"/>
+        <v>-0.14000000000009827</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.4479163757536355E-2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="8"/>
-        <v>9.5520836242561913E-2</v>
+        <f t="shared" si="5"/>
+        <v>-9.5520836242561913E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -12483,16 +14059,16 @@
         <v>13.504479163757537</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.9999999999901021E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9999999999901021E-2</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.4479163757536355E-2</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.10447916375743738</v>
+        <f t="shared" si="5"/>
+        <v>0.10447916375743738</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -12510,16 +14086,16 @@
         <v>13.0789851722202</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16000000000010139</v>
+        <f t="shared" si="3"/>
+        <v>-0.16000000000010139</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.8985172220201036E-2</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="8"/>
-        <v>0.12101482777990036</v>
+        <f t="shared" si="5"/>
+        <v>-0.12101482777990036</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -12537,16 +14113,16 @@
         <v>13.0789851722202</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.9999999999899671E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9999999999899671E-2</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.8985172220201036E-2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.8985172220100708E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.8985172220100708E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -12564,16 +14140,16 @@
         <v>12.682920355641841</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16000000000009962</v>
+        <f t="shared" si="3"/>
+        <v>-0.16000000000009962</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2920355641840047E-2</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11707964435825957</v>
+        <f t="shared" si="5"/>
+        <v>-0.11707964435825957</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -12591,16 +14167,16 @@
         <v>12.682920355641841</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.9999999999901448E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9999999999901448E-2</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2920355641840047E-2</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="8"/>
-        <v>-8.2920355641741494E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.2920355641741494E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -12618,16 +14194,16 @@
         <v>12.274269046486097</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16000000000009962</v>
+        <f t="shared" si="3"/>
+        <v>-0.16000000000009962</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.4269046486096855E-2</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="8"/>
-        <v>0.12573095351400276</v>
+        <f t="shared" si="5"/>
+        <v>-0.12573095351400276</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -12645,16 +14221,16 @@
         <v>12.274269046486097</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.9999999999899671E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9999999999899671E-2</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.4269046486096855E-2</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.4269046485996526E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.4269046485996526E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12672,16 +14248,16 @@
         <v>11.91346509138782</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="6"/>
-        <v>0.15000000000009983</v>
+        <f t="shared" si="3"/>
+        <v>-0.15000000000009983</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.3465091387820749E-2</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="8"/>
-        <v>8.6534908612279082E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.6534908612279082E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12699,16 +14275,16 @@
         <v>11.91346509138782</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.9999999999899458E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.9999999999899458E-2</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.3465091387820749E-2</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.11346509138772021</v>
+        <f t="shared" si="5"/>
+        <v>0.11346509138772021</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12726,16 +14302,16 @@
         <v>11.520051012984766</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13000000000009848</v>
+        <f t="shared" si="3"/>
+        <v>-0.13000000000009848</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0051012984765109E-2</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="8"/>
-        <v>7.9948987015333373E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.9948987015333373E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12753,16 +14329,16 @@
         <v>11.520051012984766</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.9999999999900808E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9999999999900808E-2</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.0051012984765109E-2</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.12005101298466592</v>
+        <f t="shared" si="5"/>
+        <v>0.12005101298466592</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12780,16 +14356,16 @@
         <v>11.153346524928054</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1000000000001009</v>
+        <f t="shared" si="3"/>
+        <v>-0.1000000000001009</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.3346524928054251E-2</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="8"/>
-        <v>4.6653475072046646E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.6653475072046646E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12807,16 +14383,16 @@
         <v>11.153346524928054</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999900169E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999900169E-2</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.3346524928054251E-2</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.15334652492795442</v>
+        <f t="shared" si="5"/>
+        <v>0.15334652492795442</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -12834,16 +14410,16 @@
         <v>10.736996761300361</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="6"/>
-        <v>7.000000000009976E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.000000000009976E-2</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9967613003605322E-3</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="8"/>
-        <v>6.3003238699739228E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.3003238699739228E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12861,16 +14437,16 @@
         <v>10.736996761300361</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.12999999999990131</v>
+        <f t="shared" si="3"/>
+        <v>0.12999999999990131</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9967613003605322E-3</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.13699676130026184</v>
+        <f t="shared" si="5"/>
+        <v>0.13699676130026184</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -12888,16 +14464,16 @@
         <v>10.439574411199203</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0000000000100613E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.0000000000100613E-2</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9574411199203823E-2</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.957441119910321E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.957441119910321E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -12915,16 +14491,16 @@
         <v>10.439574411199203</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.16999999999989868</v>
+        <f t="shared" si="3"/>
+        <v>0.16999999999989868</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.9574411199203823E-2</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.2395744111991025</v>
+        <f t="shared" si="5"/>
+        <v>0.2395744111991025</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -12942,16 +14518,16 @@
         <v>10.110210935359646</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999003109E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999003109E-3</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.10021093535964631</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.11021093535954662</v>
+        <f t="shared" si="5"/>
+        <v>0.11021093535954662</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -12969,16 +14545,16 @@
         <v>9.7505537021930309</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13000000000010026</v>
+        <f t="shared" si="3"/>
+        <v>-0.13000000000010026</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.0553702193030929E-2</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9446297807069328E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.9446297807069328E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -12996,16 +14572,16 @@
         <v>9.7505537021930309</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.9999999999900808E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9999999999900808E-2</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.0553702193030929E-2</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.15055370219293174</v>
+        <f t="shared" si="5"/>
+        <v>0.15055370219293174</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -13023,16 +14599,16 @@
         <v>9.3623343148297522</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="6"/>
-        <v>8.0000000000099547E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.0000000000099547E-2</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2334314829751918E-2</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7665685170347629E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.7665685170347629E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -13050,16 +14626,16 @@
         <v>9.3623343148297522</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.11999999999989974</v>
+        <f t="shared" si="3"/>
+        <v>0.11999999999989974</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2334314829751918E-2</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.16233431482965166</v>
+        <f t="shared" si="5"/>
+        <v>0.16233431482965166</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -13077,16 +14653,16 @@
         <v>9.0674850661904998</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0000000000099263E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0000000000099263E-2</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.7485066190499552E-2</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.7485066190400289E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.7485066190400289E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -13104,16 +14680,16 @@
         <v>8.7430808670666806</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="6"/>
-        <v>0.14000000000010004</v>
+        <f t="shared" si="3"/>
+        <v>-0.14000000000010004</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.3080867066680497E-2</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="8"/>
-        <v>5.6919132933419547E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.6919132933419547E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -13131,16 +14707,16 @@
         <v>8.7430808670666806</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.9999999999901021E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9999999999901021E-2</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.3080867066680497E-2</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.14308086706658152</v>
+        <f t="shared" si="5"/>
+        <v>0.14308086706658152</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -13158,16 +14734,16 @@
         <v>8.3740131053979781</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="6"/>
-        <v>7.000000000009976E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.000000000009976E-2</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.4013105397977981E-2</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="8"/>
-        <v>2.5986894602121779E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.5986894602121779E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -13185,16 +14761,16 @@
         <v>8.3740131053979781</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.12999999999989953</v>
+        <f t="shared" si="3"/>
+        <v>0.12999999999989953</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.4013105397977981E-2</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.17401310539787751</v>
+        <f t="shared" si="5"/>
+        <v>0.17401310539787751</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -13212,16 +14788,16 @@
         <v>8.1098870029214254</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999003109E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999003109E-3</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.9887002921425605E-2</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.10988700292132592</v>
+        <f t="shared" si="5"/>
+        <v>0.10988700292132592</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -13239,16 +14815,16 @@
         <v>7.7524231979448928</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="6"/>
-        <v>0.10000000000010001</v>
+        <f t="shared" si="3"/>
+        <v>-0.10000000000010001</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.2423197944892586E-2</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="8"/>
-        <v>4.7576802055207423E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.7576802055207423E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -13266,16 +14842,16 @@
         <v>7.7524231979448928</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999900169E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999900169E-2</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.2423197944892586E-2</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.15242319794479275</v>
+        <f t="shared" si="5"/>
+        <v>0.15242319794479275</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -13293,16 +14869,16 @@
         <v>7.4647282105237309</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0000000000100151E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0000000000100151E-2</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.4728210523731242E-2</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.4728210523631091E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.4728210523631091E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -13320,16 +14896,16 @@
         <v>7.1655729339216805</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="6"/>
-        <v>0.12000000000009958</v>
+        <f t="shared" si="3"/>
+        <v>-0.12000000000009958</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.5572933921680416E-2</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="8"/>
-        <v>3.4427066078419166E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.4427066078419166E-2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -13347,16 +14923,16 @@
         <v>7.1655729339216805</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.9999999999899707E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.9999999999899707E-2</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.5572933921680416E-2</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.16557293392158012</v>
+        <f t="shared" si="5"/>
+        <v>0.16557293392158012</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -13374,16 +14950,16 @@
         <v>6.870932187979065</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0000000000099938E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.0000000000099938E-2</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.0932187979064771E-2</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.0932187978964834E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.0932187978964834E-2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -13401,16 +14977,16 @@
         <v>6.5352420366668298</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1100000000000998</v>
+        <f t="shared" si="3"/>
+        <v>-0.1100000000000998</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.5242036666829577E-2</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="8"/>
-        <v>6.4757963333270219E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.4757963333270219E-2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -13428,16 +15004,16 @@
         <v>6.5352420366668298</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="6"/>
-        <v>-8.9999999999900382E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.9999999999900382E-2</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.5242036666829577E-2</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.13524203666672996</v>
+        <f t="shared" si="5"/>
+        <v>0.13524203666672996</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -13455,16 +15031,16 @@
         <v>6.2797539155546929</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0000000000099263E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0000000000099263E-2</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.9753915554692476E-2</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.9753915554593213E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.9753915554593213E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -13482,16 +15058,16 @@
         <v>6.0275814394538543</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="6"/>
-        <v>9.0000000000100222E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.0000000000100222E-2</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.11758143945385413</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.7581439453753909E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7581439453753909E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -13509,16 +15085,16 @@
         <v>6.0275814394538543</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.10999999999989996</v>
+        <f t="shared" si="3"/>
+        <v>0.10999999999989996</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.11758143945385413</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.22758143945375409</v>
+        <f t="shared" si="5"/>
+        <v>0.22758143945375409</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -13536,16 +15112,16 @@
         <v>5.6915414699558369</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.1541469955836767E-2</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.1541469955736865E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.1541469955736865E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -13563,16 +15139,16 @@
         <v>5.4325603313872648</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="6"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.2560331387265151E-2</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.2560331387164965E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.2560331387164965E-2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -13590,16 +15166,16 @@
         <v>5.1629018393232968</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13000000000009937</v>
+        <f t="shared" si="3"/>
+        <v>-0.13000000000009937</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2901839323296542E-2</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7098160676802827E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.7098160676802827E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -13617,16 +15193,16 @@
         <v>5.1629018393232968</v>
       </c>
       <c r="E127" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.999999999989992E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.999999999989992E-2</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.2901839323296542E-2</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.16290183932319646</v>
+        <f t="shared" si="5"/>
+        <v>0.16290183932319646</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -13644,16 +15220,16 @@
         <v>4.8969564193988049</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0036416142611415E-13</v>
+        <f t="shared" si="3"/>
+        <v>-1.0036416142611415E-13</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.695641939880506E-2</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.6956419398704696E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.6956419398704696E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -13671,16 +15247,16 @@
         <v>4.6346283488981612</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="6"/>
-        <v>7.000000000009976E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.000000000009976E-2</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.10462834889816097</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.4628348898061212E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.4628348898061212E-2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -13698,16 +15274,16 @@
         <v>4.6346283488981612</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.12999999999990042</v>
+        <f t="shared" ref="E130:E193" si="6">B130-A130</f>
+        <v>0.12999999999990042</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F130:F193" si="7">D130-B130</f>
         <v>0.10462834889816097</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.23462834889806139</v>
+        <f t="shared" ref="G130:G193" si="8">D130-A130</f>
+        <v>0.23462834889806139</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -13725,16 +15301,16 @@
         <v>4.3758254910402457</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" ref="E131:E194" si="9">A131-B131</f>
-        <v>-6.999999999989992E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.999999999989992E-2</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" ref="F131:F194" si="10">D131-B131</f>
+        <f t="shared" si="7"/>
         <v>0.10582549104024608</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G194" si="11">A131-D131</f>
-        <v>-0.175825491040146</v>
+        <f t="shared" si="8"/>
+        <v>0.175825491040146</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -13752,16 +15328,16 @@
         <v>4.1471805297116475</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="9"/>
-        <v>-9.9999999998994227E-3</v>
+        <f t="shared" si="6"/>
+        <v>9.9999999998994227E-3</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.13718052971164774</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.14718052971154716</v>
+        <f t="shared" si="8"/>
+        <v>0.14718052971154716</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -13779,16 +15355,16 @@
         <v>3.8421073653535132</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="9"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9.210736535351316E-2</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="11"/>
-        <v>-4.2107365353412973E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.2107365353412973E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -13806,16 +15382,16 @@
         <v>3.6196970085884459</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10000000000010001</v>
+        <f t="shared" si="6"/>
+        <v>-0.10000000000010001</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1196970085884459</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.9697008588345888E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9697008588345888E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -13833,16 +15409,16 @@
         <v>3.6196970085884459</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" si="9"/>
-        <v>-9.9999999999900169E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.9999999999900169E-2</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1196970085884459</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21969700858834607</v>
+        <f t="shared" si="8"/>
+        <v>0.21969700858834607</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -13860,16 +15436,16 @@
         <v>3.3613022317231867</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999899902E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999899902E-2</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11130223172318665</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.16130223172308655</v>
+        <f t="shared" si="8"/>
+        <v>0.16130223172308655</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -13887,16 +15463,16 @@
         <v>3.1316944032438983</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" si="9"/>
-        <v>9.9920072216264089E-14</v>
+        <f t="shared" si="6"/>
+        <v>-9.9920072216264089E-14</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.13169440324389825</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.13169440324379833</v>
+        <f t="shared" si="8"/>
+        <v>0.13169440324379833</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -13914,16 +15490,16 @@
         <v>2.8797704193108302</v>
       </c>
       <c r="E138" s="1">
-        <f t="shared" si="9"/>
-        <v>4.00000000001004E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.00000000001004E-2</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11977041931083043</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="11"/>
-        <v>-7.9770419310730034E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.9770419310730034E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -13941,16 +15517,16 @@
         <v>2.631130107125216</v>
       </c>
       <c r="E139" s="1">
-        <f t="shared" si="9"/>
-        <v>8.0000000000099991E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.0000000000099991E-2</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11113010712521598</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1130107125115991E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1130107125115991E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -13968,16 +15544,16 @@
         <v>2.631130107125216</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.11999999999990019</v>
+        <f t="shared" si="6"/>
+        <v>0.11999999999990019</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11113010712521598</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.23113010712511617</v>
+        <f t="shared" si="8"/>
+        <v>0.23113010712511617</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -13995,16 +15571,16 @@
         <v>2.3978902189831501</v>
       </c>
       <c r="E141" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.9999999999899707E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9999999999899707E-2</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11789021898315033</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.19789021898305004</v>
+        <f t="shared" si="8"/>
+        <v>0.19789021898305004</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -14022,16 +15598,16 @@
         <v>2.2157519733023037</v>
       </c>
       <c r="E142" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999899902E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999899902E-2</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16575197330230385</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21575197330220375</v>
+        <f t="shared" si="8"/>
+        <v>0.21575197330220375</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -14049,16 +15625,16 @@
         <v>1.9398204069758549</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.11982040697585483</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.13982040697575493</v>
+        <f t="shared" si="8"/>
+        <v>0.13982040697575493</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -14076,16 +15652,16 @@
         <v>1.7148642649250974</v>
       </c>
       <c r="E144" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0000000000099929E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.0000000000099929E-2</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.12486426492509728</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.11486426492499735</v>
+        <f t="shared" si="8"/>
+        <v>0.11486426492499735</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -14103,16 +15679,16 @@
         <v>1.492546597961109</v>
       </c>
       <c r="E145" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0000000000099956E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.0000000000099956E-2</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1325465979611089</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.2546597961008947E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.2546597961008947E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -14130,16 +15706,16 @@
         <v>1.2958197420142028</v>
       </c>
       <c r="E146" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0000000000100195E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.0000000000100195E-2</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1558197420142029</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.5819742014102705E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.5819742014102705E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -14157,16 +15733,16 @@
         <v>1.0669664770426834</v>
       </c>
       <c r="E147" s="1">
-        <f t="shared" si="9"/>
-        <v>8.000000000009988E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.000000000009988E-2</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1469664770426834</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="11"/>
-        <v>-6.6966477042583517E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6966477042583517E-2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -14184,16 +15760,16 @@
         <v>0.84085292749608698</v>
       </c>
       <c r="E148" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10000000000010001</v>
+        <f t="shared" si="6"/>
+        <v>-0.10000000000010001</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.14085292749608702</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="11"/>
-        <v>-4.0852927495987013E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.0852927495987013E-2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -14211,16 +15787,16 @@
         <v>0.84085292749608698</v>
       </c>
       <c r="E149" s="1">
-        <f t="shared" si="9"/>
-        <v>-9.9999999999898948E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.9999999999898948E-2</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.14085292749608702</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.24085292749598597</v>
+        <f t="shared" si="8"/>
+        <v>0.24085292749598597</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -14238,16 +15814,16 @@
         <v>0.61741754957807871</v>
       </c>
       <c r="E150" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.9999999999897986E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9999999999897986E-2</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.13741754957807872</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21741754957797671</v>
+        <f t="shared" si="8"/>
+        <v>0.21741754957797671</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -14265,16 +15841,16 @@
         <v>0.45156268129323962</v>
       </c>
       <c r="E151" s="1">
-        <f t="shared" si="9"/>
-        <v>-6.999999999990103E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.999999999990103E-2</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.1815626812932396</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.25156268129314063</v>
+        <f t="shared" si="8"/>
+        <v>0.25156268129314063</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -14292,16 +15868,16 @@
         <v>0.24355626459333735</v>
       </c>
       <c r="E152" s="1">
-        <f t="shared" si="9"/>
-        <v>-5.9999999999900522E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.9999999999900522E-2</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.18355626459333735</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.24355626459323787</v>
+        <f t="shared" si="8"/>
+        <v>0.24355626459323787</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -14319,16 +15895,16 @@
         <v>5.546964176005531E-3</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999900013E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999900013E-2</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15554696417600553</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.20554696417590554</v>
+        <f t="shared" si="8"/>
+        <v>0.20554696417590554</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -14346,16 +15922,16 @@
         <v>-0.20823819668305532</v>
       </c>
       <c r="E154" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999899005E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999899005E-2</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15176180331694467</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.19176180331684367</v>
+        <f t="shared" si="8"/>
+        <v>0.19176180331684367</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -14373,16 +15949,16 @@
         <v>-0.41961404257313006</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999897895E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999897895E-2</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.14038595742686999</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.18038595742676788</v>
+        <f t="shared" si="8"/>
+        <v>0.18038595742676788</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -14400,16 +15976,16 @@
         <v>-0.6078345167079533</v>
       </c>
       <c r="E156" s="1">
-        <f>A156-B156</f>
-        <v>-3.9999999999901004E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999901004E-2</v>
       </c>
       <c r="F156" s="1">
-        <f>D156-B156</f>
+        <f t="shared" si="7"/>
         <v>0.15216548329204671</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.19216548329194771</v>
+        <f t="shared" si="8"/>
+        <v>0.19216548329194771</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -14427,16 +16003,16 @@
         <v>-0.81477184467416919</v>
       </c>
       <c r="E157" s="1">
-        <f>A157-B157</f>
-        <v>-3.9999999999901004E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999901004E-2</v>
       </c>
       <c r="F157" s="1">
-        <f>D157-B157</f>
+        <f t="shared" si="7"/>
         <v>0.14522815532583078</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.18522815532573178</v>
+        <f t="shared" si="8"/>
+        <v>0.18522815532573178</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -14454,16 +16030,16 @@
         <v>-0.99907691095114615</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999900115E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999900115E-2</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16092308904885377</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.20092308904875389</v>
+        <f t="shared" si="8"/>
+        <v>0.20092308904875389</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -14481,16 +16057,16 @@
         <v>-1.1916677502251787</v>
       </c>
       <c r="E159" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999899893E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999899893E-2</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16833224977482142</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.20833224977472131</v>
+        <f t="shared" si="8"/>
+        <v>0.20833224977472131</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -14508,16 +16084,16 @@
         <v>-1.3922695950560069</v>
       </c>
       <c r="E160" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999899902E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999899902E-2</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15773040494399315</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.20773040494389305</v>
+        <f t="shared" si="8"/>
+        <v>0.20773040494389305</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -14535,16 +16111,16 @@
         <v>-1.5808617135936629</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" si="9"/>
-        <v>-5.9999999999899911E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.9999999999899911E-2</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15913828640633709</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.219138286406237</v>
+        <f t="shared" si="8"/>
+        <v>0.219138286406237</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -14562,16 +16138,16 @@
         <v>-1.7284123270410987</v>
       </c>
       <c r="E162" s="1">
-        <f t="shared" si="9"/>
-        <v>-6.9999999999900142E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.9999999999900142E-2</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.20158767295890123</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.27158767295880137</v>
+        <f t="shared" si="8"/>
+        <v>0.27158767295880137</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -14589,16 +16165,16 @@
         <v>-1.9620849781801439</v>
       </c>
       <c r="E163" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.9999999999899707E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9999999999899707E-2</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15791502181985617</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.23791502181975588</v>
+        <f t="shared" si="8"/>
+        <v>0.23791502181975588</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -14616,16 +16192,16 @@
         <v>-2.3166668246228141</v>
       </c>
       <c r="E164" s="1">
-        <f t="shared" si="9"/>
-        <v>9.0000000000100222E-2</v>
+        <f t="shared" si="6"/>
+        <v>-9.0000000000100222E-2</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17333317537718607</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="11"/>
-        <v>-8.3333175377085844E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.3333175377085844E-2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -14643,16 +16219,16 @@
         <v>-2.505546838614805</v>
       </c>
       <c r="E165" s="1">
-        <f t="shared" si="9"/>
-        <v>7.000000000009976E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.000000000009976E-2</v>
       </c>
       <c r="F165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16445316138519495</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.4453161385095186E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.4453161385095186E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -14670,16 +16246,16 @@
         <v>-2.7018192168297333</v>
       </c>
       <c r="E166" s="1">
-        <f t="shared" si="9"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.14818078317026684</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.8180783170166652E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.8180783170166652E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -14697,16 +16273,16 @@
         <v>-2.877622401316728</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0000000000099725E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.0000000000099725E-2</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15237759868327183</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.12237759868317211</v>
+        <f t="shared" si="8"/>
+        <v>0.12237759868317211</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -14724,16 +16300,16 @@
         <v>-3.0517690688520247</v>
       </c>
       <c r="E168" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0000000000100151E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.0000000000100151E-2</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15823093114797526</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.14823093114787511</v>
+        <f t="shared" si="8"/>
+        <v>0.14823093114787511</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -14751,16 +16327,16 @@
         <v>-3.2152487170158679</v>
       </c>
       <c r="E169" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.164751282984132</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.18475128298403209</v>
+        <f t="shared" si="8"/>
+        <v>0.18475128298403209</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -14778,16 +16354,16 @@
         <v>-3.3862531408469749</v>
       </c>
       <c r="E170" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999900346E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999900346E-2</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16374685915302489</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21374685915292524</v>
+        <f t="shared" si="8"/>
+        <v>0.21374685915292524</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -14805,16 +16381,16 @@
         <v>-3.5645599231192477</v>
       </c>
       <c r="E171" s="1">
-        <f t="shared" si="9"/>
-        <v>-6.999999999989992E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.999999999989992E-2</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16544007688075224</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.23544007688065216</v>
+        <f t="shared" si="8"/>
+        <v>0.23544007688065216</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -14832,16 +16408,16 @@
         <v>-3.907367198893553</v>
       </c>
       <c r="E172" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0000000000099529E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.0000000000099529E-2</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15263280110644661</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.2632801106347085E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.2632801106347085E-2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -14859,16 +16435,16 @@
         <v>-4.0807168202995285</v>
       </c>
       <c r="E173" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0000000000100613E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.0000000000100613E-2</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.14928317970047189</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.11928317970037128</v>
+        <f t="shared" si="8"/>
+        <v>0.11928317970037128</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -14886,16 +16462,16 @@
         <v>-4.2353442853152501</v>
       </c>
       <c r="E174" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0036416142611415E-13</v>
+        <f t="shared" si="6"/>
+        <v>-1.0036416142611415E-13</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16465571468475027</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.1646557146846499</v>
+        <f t="shared" si="8"/>
+        <v>0.1646557146846499</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -14913,16 +16489,16 @@
         <v>-4.3886791915905974</v>
       </c>
       <c r="E175" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.999999999990056E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.999999999990056E-2</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17132080840940223</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21132080840930278</v>
+        <f t="shared" si="8"/>
+        <v>0.21132080840930278</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -14940,16 +16516,16 @@
         <v>-4.5575600886306233</v>
       </c>
       <c r="E176" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.9999999999900595E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9999999999900595E-2</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16243991136937641</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.24243991136927701</v>
+        <f t="shared" si="8"/>
+        <v>0.24243991136927701</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -14967,16 +16543,16 @@
         <v>-4.8824628720005308</v>
       </c>
       <c r="E177" s="1">
-        <f t="shared" si="9"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F177" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16753712799946907</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.11753712799936888</v>
+        <f t="shared" si="8"/>
+        <v>0.11753712799936888</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -14994,16 +16570,16 @@
         <v>-5.038681421458989</v>
       </c>
       <c r="E178" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0036416142611415E-13</v>
+        <f t="shared" si="6"/>
+        <v>-1.0036416142611415E-13</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16131857854101117</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.16131857854091081</v>
+        <f t="shared" si="8"/>
+        <v>0.16131857854091081</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -15021,16 +16597,16 @@
         <v>-5.2016909224561232</v>
       </c>
       <c r="E179" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.9999999999899671E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9999999999899671E-2</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15830907754387713</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.1983090775437768</v>
+        <f t="shared" si="8"/>
+        <v>0.1983090775437768</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -15048,16 +16624,16 @@
         <v>-5.5154294924078613</v>
       </c>
       <c r="E180" s="1">
-        <f t="shared" si="9"/>
-        <v>7.000000000009976E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.000000000009976E-2</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.15457050759213864</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="11"/>
-        <v>-8.4570507592038879E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.4570507592038879E-2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -15075,16 +16651,16 @@
         <v>-5.658429581251653</v>
       </c>
       <c r="E181" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0000000000099725E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.0000000000099725E-2</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17157041874834711</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.14157041874824738</v>
+        <f t="shared" si="8"/>
+        <v>0.14157041874824738</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -15102,16 +16678,16 @@
         <v>-5.8081649253026058</v>
       </c>
       <c r="E182" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.999999999989921E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.999999999989921E-2</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17183507469739467</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.19183507469729388</v>
+        <f t="shared" si="8"/>
+        <v>0.19183507469729388</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -15129,16 +16705,16 @@
         <v>-5.9644602364364232</v>
       </c>
       <c r="E183" s="1">
-        <f t="shared" si="9"/>
-        <v>-6.999999999989992E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.999999999989992E-2</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.16553976356357669</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.23553976356347661</v>
+        <f t="shared" si="8"/>
+        <v>0.23553976356347661</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -15156,16 +16732,16 @@
         <v>-6.2501081013867861</v>
       </c>
       <c r="E184" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0000000000099725E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.0000000000099725E-2</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17989189861321364</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.14989189861311392</v>
+        <f t="shared" si="8"/>
+        <v>0.14989189861311392</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -15183,16 +16759,16 @@
         <v>-6.3874625226678745</v>
       </c>
       <c r="E185" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.9999999999899885E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.9999999999899885E-2</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.18253747733212577</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21253747733202566</v>
+        <f t="shared" si="8"/>
+        <v>0.21253747733202566</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -15210,16 +16786,16 @@
         <v>-6.6890172379227693</v>
       </c>
       <c r="E186" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0000000000099973E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.0000000000099973E-2</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17098276207723107</v>
       </c>
       <c r="G186" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.11098276207713109</v>
+        <f t="shared" si="8"/>
+        <v>0.11098276207713109</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -15237,16 +16813,16 @@
         <v>-6.830514561172663</v>
       </c>
       <c r="E187" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0000000000100151E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.0000000000100151E-2</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17948543882733681</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.16948543882723666</v>
+        <f t="shared" si="8"/>
+        <v>0.16948543882723666</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -15264,16 +16840,16 @@
         <v>-6.963550831891439</v>
       </c>
       <c r="E188" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999899458E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999899458E-2</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.18644916810856138</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.23644916810846084</v>
+        <f t="shared" si="8"/>
+        <v>0.23644916810846084</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -15291,16 +16867,16 @@
         <v>-7.2339750912958038</v>
       </c>
       <c r="E189" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0000000000099725E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.0000000000099725E-2</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.19602490870419587</v>
       </c>
       <c r="G189" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.16602490870409614</v>
+        <f t="shared" si="8"/>
+        <v>0.16602490870409614</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -15318,16 +16894,16 @@
         <v>-7.3856751701111421</v>
       </c>
       <c r="E190" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.9999999999899885E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.9999999999899885E-2</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.18432482988885823</v>
       </c>
       <c r="G190" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.21432482988875812</v>
+        <f t="shared" si="8"/>
+        <v>0.21432482988875812</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -15345,16 +16921,16 @@
         <v>-7.6640598365502228</v>
       </c>
       <c r="E191" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0000000000099512E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.0000000000099512E-2</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17594016344977703</v>
       </c>
       <c r="G191" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.13594016344967752</v>
+        <f t="shared" si="8"/>
+        <v>0.13594016344967752</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -15372,16 +16948,16 @@
         <v>-7.7911072588173056</v>
       </c>
       <c r="E192" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.999999999989921E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.999999999989921E-2</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.18889274118269483</v>
       </c>
       <c r="G192" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.20889274118259404</v>
+        <f t="shared" si="8"/>
+        <v>0.20889274118259404</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -15399,16 +16975,16 @@
         <v>-8.0702610682935187</v>
       </c>
       <c r="E193" s="1">
-        <f t="shared" si="9"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.17973893170648125</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.12973893170638107</v>
+        <f t="shared" si="8"/>
+        <v>0.12973893170638107</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -15426,16 +17002,16 @@
         <v>-8.2013543402636628</v>
       </c>
       <c r="E194" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" ref="E194:E252" si="9">B194-A194</f>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F194:F252" si="10">D194-B194</f>
         <v>0.17864565973633795</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.19864565973623804</v>
+        <f t="shared" ref="G194:G252" si="11">D194-A194</f>
+        <v>0.19864565973623804</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -15453,16 +17029,16 @@
         <v>-8.4607011890325339</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" ref="E195:E252" si="12">A195-B195</f>
-        <v>4.00000000001004E-2</v>
+        <f t="shared" si="9"/>
+        <v>-4.00000000001004E-2</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F252" si="13">D195-B195</f>
+        <f t="shared" si="10"/>
         <v>0.17929881096746669</v>
       </c>
       <c r="G195" s="1">
-        <f t="shared" ref="G195:G252" si="14">A195-D195</f>
-        <v>-0.13929881096736629</v>
+        <f t="shared" si="11"/>
+        <v>0.13929881096736629</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -15480,16 +17056,16 @@
         <v>-8.5957066928107793</v>
       </c>
       <c r="E196" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.9999999999899885E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9999999999899885E-2</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.17429330718922031</v>
       </c>
       <c r="G196" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2042933071891202</v>
+        <f t="shared" si="11"/>
+        <v>0.2042933071891202</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -15507,16 +17083,16 @@
         <v>-8.849445005749601</v>
       </c>
       <c r="E197" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000098836E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000098836E-2</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18055499425039834</v>
       </c>
       <c r="G197" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1505549942502995</v>
+        <f t="shared" si="11"/>
+        <v>0.1505549942502995</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -15534,16 +17110,16 @@
         <v>-8.97497655632327</v>
       </c>
       <c r="E198" s="1">
-        <f t="shared" si="12"/>
-        <v>-3.9999999999899671E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999899671E-2</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18502344367673018</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.22502344367662985</v>
+        <f t="shared" si="11"/>
+        <v>0.22502344367662985</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -15561,16 +17137,16 @@
         <v>-9.2234232872985444</v>
       </c>
       <c r="E199" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0000000000099263E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000000000099263E-2</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1865767127014557</v>
       </c>
       <c r="G199" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17657671270135644</v>
+        <f t="shared" si="11"/>
+        <v>0.17657671270135644</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -15588,16 +17164,16 @@
         <v>-9.468457344775743</v>
       </c>
       <c r="E200" s="1">
-        <f t="shared" si="12"/>
-        <v>6.0000000000099973E-2</v>
+        <f t="shared" si="9"/>
+        <v>-6.0000000000099973E-2</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19154265522425717</v>
       </c>
       <c r="G200" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1315426552241572</v>
+        <f t="shared" si="11"/>
+        <v>0.1315426552241572</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -15615,16 +17191,16 @@
         <v>-9.6024390562491817</v>
       </c>
       <c r="E201" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.17756094375081766</v>
       </c>
       <c r="G201" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19756094375071775</v>
+        <f t="shared" si="11"/>
+        <v>0.19756094375071775</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -15642,16 +17218,16 @@
         <v>-9.8486174780412057</v>
       </c>
       <c r="E202" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000098836E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000098836E-2</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18138252195879367</v>
       </c>
       <c r="G202" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.15138252195869484</v>
+        <f t="shared" si="11"/>
+        <v>0.15138252195869484</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -15669,16 +17245,16 @@
         <v>-9.9673269554971284</v>
       </c>
       <c r="E203" s="1">
-        <f t="shared" si="12"/>
-        <v>-4.9999999999899458E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.9999999999899458E-2</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18267304450287192</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.23267304450277138</v>
+        <f t="shared" si="11"/>
+        <v>0.23267304450277138</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -15696,16 +17272,16 @@
         <v>-10.202391774677778</v>
       </c>
       <c r="E204" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999900098E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999900098E-2</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.17760822532222242</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19760822532212252</v>
+        <f t="shared" si="11"/>
+        <v>0.19760822532212252</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -15723,16 +17299,16 @@
         <v>-10.434382704267023</v>
       </c>
       <c r="E205" s="1">
-        <f t="shared" si="12"/>
-        <v>2.000000000009905E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.000000000009905E-2</v>
       </c>
       <c r="F205" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18561729573297647</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.16561729573287742</v>
+        <f t="shared" si="11"/>
+        <v>0.16561729573287742</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -15750,16 +17326,16 @@
         <v>-10.67534579989649</v>
       </c>
       <c r="E206" s="1">
-        <f t="shared" si="12"/>
-        <v>5.0000000000100187E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.0000000000100187E-2</v>
       </c>
       <c r="F206" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.17465420010350918</v>
       </c>
       <c r="G206" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.124654200103409</v>
+        <f t="shared" si="11"/>
+        <v>0.124654200103409</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -15777,16 +17353,16 @@
         <v>-10.788664040118078</v>
       </c>
       <c r="E207" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.9999999999899885E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9999999999899885E-2</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18133595988192219</v>
       </c>
       <c r="G207" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21133595988182208</v>
+        <f t="shared" si="11"/>
+        <v>0.21133595988182208</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -15804,16 +17380,16 @@
         <v>-11.013144440340398</v>
       </c>
       <c r="E208" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999999003109E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999999003109E-3</v>
       </c>
       <c r="F208" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.17685555965960198</v>
       </c>
       <c r="G208" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18685555965950229</v>
+        <f t="shared" si="11"/>
+        <v>0.18685555965950229</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -15831,16 +17407,16 @@
         <v>-11.23480718054833</v>
       </c>
       <c r="E209" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000200302E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000200302E-2</v>
       </c>
       <c r="F209" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18519281945166988</v>
       </c>
       <c r="G209" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.16519281945146957</v>
+        <f t="shared" si="11"/>
+        <v>0.16519281945146957</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -15858,16 +17434,16 @@
         <v>-11.447992587145848</v>
       </c>
       <c r="E210" s="1">
-        <f t="shared" si="12"/>
-        <v>4.00000000001004E-2</v>
+        <f t="shared" si="9"/>
+        <v>-4.00000000001004E-2</v>
       </c>
       <c r="F210" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1920074128541529</v>
       </c>
       <c r="G210" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1520074128540525</v>
+        <f t="shared" si="11"/>
+        <v>0.1520074128540525</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -15885,16 +17461,16 @@
         <v>-11.556471950512901</v>
       </c>
       <c r="E211" s="1">
-        <f t="shared" si="12"/>
-        <v>-4.9999999999899458E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.9999999999899458E-2</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19352804948709945</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.24352804948699891</v>
+        <f t="shared" si="11"/>
+        <v>0.24352804948699891</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -15912,16 +17488,16 @@
         <v>-11.777067285372027</v>
       </c>
       <c r="E212" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.9999999999899885E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9999999999899885E-2</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19293271462797357</v>
       </c>
       <c r="G212" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.22293271462787345</v>
+        <f t="shared" si="11"/>
+        <v>0.22293271462787345</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -15939,16 +17515,16 @@
         <v>-11.989376818789083</v>
       </c>
       <c r="E213" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999800622E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999800622E-2</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19062318121091693</v>
       </c>
       <c r="G213" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21062318121071755</v>
+        <f t="shared" si="11"/>
+        <v>0.21062318121071755</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -15966,16 +17542,16 @@
         <v>-12.199150423563424</v>
       </c>
       <c r="E214" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999997990585E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999997990585E-3</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19084957643657674</v>
       </c>
       <c r="G214" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2008495764363758</v>
+        <f t="shared" si="11"/>
+        <v>0.2008495764363758</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -15993,16 +17569,16 @@
         <v>-12.406445054492451</v>
       </c>
       <c r="E215" s="1">
-        <f t="shared" si="12"/>
-        <v>9.9475983006414026E-14</v>
+        <f t="shared" si="9"/>
+        <v>-9.9475983006414026E-14</v>
       </c>
       <c r="F215" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19355494550754848</v>
       </c>
       <c r="G215" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19355494550744901</v>
+        <f t="shared" si="11"/>
+        <v>0.19355494550744901</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -16020,16 +17596,16 @@
         <v>-12.616674895820779</v>
       </c>
       <c r="E216" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0000000000200515E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000000000200515E-2</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19332510417922144</v>
       </c>
       <c r="G216" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18332510417902093</v>
+        <f t="shared" si="11"/>
+        <v>0.18332510417902093</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -16047,16 +17623,16 @@
         <v>-12.813815975537921</v>
       </c>
       <c r="E217" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000200302E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000200302E-2</v>
       </c>
       <c r="F217" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20618402446207895</v>
       </c>
       <c r="G217" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18618402446187865</v>
+        <f t="shared" si="11"/>
+        <v>0.18618402446187865</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -16074,16 +17650,16 @@
         <v>-13.019234241296544</v>
       </c>
       <c r="E218" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000200302E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000200302E-2</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20076575870345614</v>
       </c>
       <c r="G218" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18076575870325584</v>
+        <f t="shared" si="11"/>
+        <v>0.18076575870325584</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -16101,16 +17677,16 @@
         <v>-13.227438800116829</v>
       </c>
       <c r="E219" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000200302E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000200302E-2</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19256119988317089</v>
       </c>
       <c r="G219" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17256119988297058</v>
+        <f t="shared" si="11"/>
+        <v>0.17256119988297058</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -16128,16 +17704,16 @@
         <v>-13.422957063484546</v>
       </c>
       <c r="E220" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000198526E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000198526E-2</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19704293651545335</v>
       </c>
       <c r="G220" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17704293651525482</v>
+        <f t="shared" si="11"/>
+        <v>0.17704293651525482</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -16155,16 +17731,16 @@
         <v>-13.621364453722322</v>
       </c>
       <c r="E221" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0000000000200515E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000000000200515E-2</v>
       </c>
       <c r="F221" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18863554627767876</v>
       </c>
       <c r="G221" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17863554627747824</v>
+        <f t="shared" si="11"/>
+        <v>0.17863554627747824</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -16182,16 +17758,16 @@
         <v>-13.812532546886814</v>
       </c>
       <c r="E222" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0000000000200515E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000000000200515E-2</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1974674531131857</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18746745311298518</v>
+        <f t="shared" si="11"/>
+        <v>0.18746745311298518</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -16209,16 +17785,16 @@
         <v>-14.006569288697392</v>
       </c>
       <c r="E223" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9895196601282805E-13</v>
+        <f t="shared" si="9"/>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19343071130260725</v>
       </c>
       <c r="G223" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1934307113024083</v>
+        <f t="shared" si="11"/>
+        <v>0.1934307113024083</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -16236,16 +17812,16 @@
         <v>-14.193567591192277</v>
       </c>
       <c r="E224" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999997990585E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999997990585E-3</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19643240880772339</v>
       </c>
       <c r="G224" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.20643240880752245</v>
+        <f t="shared" si="11"/>
+        <v>0.20643240880752245</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -16263,16 +17839,16 @@
         <v>-14.383413155276628</v>
       </c>
       <c r="E225" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999800622E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999800622E-2</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19658684472337207</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21658684472317269</v>
+        <f t="shared" si="11"/>
+        <v>0.21658684472317269</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -16290,16 +17866,16 @@
         <v>-14.561620203940151</v>
       </c>
       <c r="E226" s="1">
-        <f t="shared" si="12"/>
-        <v>-3.9999999999800195E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999800195E-2</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19837979605984835</v>
       </c>
       <c r="G226" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.23837979605964854</v>
+        <f t="shared" si="11"/>
+        <v>0.23837979605964854</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -16317,16 +17893,16 @@
         <v>-14.846759375764975</v>
       </c>
       <c r="E227" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000200089E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000200089E-2</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18324062423502419</v>
       </c>
       <c r="G227" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1532406242348241</v>
+        <f t="shared" si="11"/>
+        <v>0.1532406242348241</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -16344,16 +17920,16 @@
         <v>-15.029608605375415</v>
       </c>
       <c r="E228" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000200302E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000200302E-2</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19039139462458543</v>
       </c>
       <c r="G228" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17039139462438513</v>
+        <f t="shared" si="11"/>
+        <v>0.17039139462438513</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -16371,16 +17947,16 @@
         <v>-15.205925535186282</v>
       </c>
       <c r="E229" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999997990585E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999997990585E-3</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18407446481371892</v>
       </c>
       <c r="G229" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19407446481351798</v>
+        <f t="shared" si="11"/>
+        <v>0.19407446481351798</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -16398,16 +17974,16 @@
         <v>-15.385027055462331</v>
       </c>
       <c r="E230" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.9999999999800409E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9999999999800409E-2</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18497294453766955</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21497294453746996</v>
+        <f t="shared" si="11"/>
+        <v>0.21497294453746996</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -16425,16 +18001,16 @@
         <v>-15.643485585103519</v>
       </c>
       <c r="E231" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000200089E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000200089E-2</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18651441489648057</v>
       </c>
       <c r="G231" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.15651441489628048</v>
+        <f t="shared" si="11"/>
+        <v>0.15651441489628048</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -16452,16 +18028,16 @@
         <v>-15.81365898905517</v>
       </c>
       <c r="E232" s="1">
-        <f t="shared" si="12"/>
-        <v>2.007283228522283E-13</v>
+        <f t="shared" si="9"/>
+        <v>-2.007283228522283E-13</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.18634101094482958</v>
       </c>
       <c r="G232" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18634101094462885</v>
+        <f t="shared" si="11"/>
+        <v>0.18634101094462885</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -16479,16 +18055,16 @@
         <v>-15.98216368926478</v>
       </c>
       <c r="E233" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999800622E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999800622E-2</v>
       </c>
       <c r="F233" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19783631073521946</v>
       </c>
       <c r="G233" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21783631073502008</v>
+        <f t="shared" si="11"/>
+        <v>0.21783631073502008</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -16506,16 +18082,16 @@
         <v>-16.236207501166348</v>
       </c>
       <c r="E234" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000200089E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000200089E-2</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1937924988336519</v>
       </c>
       <c r="G234" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.16379249883345182</v>
+        <f t="shared" si="11"/>
+        <v>0.16379249883345182</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -16533,16 +18109,16 @@
         <v>-16.396325236328607</v>
       </c>
       <c r="E235" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999997990585E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999997990585E-3</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19367476367139247</v>
       </c>
       <c r="G235" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.20367476367119153</v>
+        <f t="shared" si="11"/>
+        <v>0.20367476367119153</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -16560,16 +18136,16 @@
         <v>-16.563493003666281</v>
       </c>
       <c r="E236" s="1">
-        <f t="shared" si="12"/>
-        <v>-3.9999999999800195E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999800195E-2</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19650699633372071</v>
       </c>
       <c r="G236" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2365069963335209</v>
+        <f t="shared" si="11"/>
+        <v>0.2365069963335209</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -16587,16 +18163,16 @@
         <v>-16.809119037437199</v>
       </c>
       <c r="E237" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9895196601282805E-13</v>
+        <f t="shared" si="9"/>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19088096256280096</v>
       </c>
       <c r="G237" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19088096256260201</v>
+        <f t="shared" si="11"/>
+        <v>0.19088096256260201</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -16614,16 +18190,16 @@
         <v>-16.968153138317348</v>
       </c>
       <c r="E238" s="1">
-        <f t="shared" si="12"/>
-        <v>-3.9999999999800195E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999800195E-2</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1918468616826523</v>
       </c>
       <c r="G238" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2318468616824525</v>
+        <f t="shared" si="11"/>
+        <v>0.2318468616824525</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -16641,16 +18217,16 @@
         <v>-17.203959946357884</v>
       </c>
       <c r="E239" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9895196601282805E-13</v>
+        <f t="shared" si="9"/>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.19604005364211474</v>
       </c>
       <c r="G239" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.19604005364191579</v>
+        <f t="shared" si="11"/>
+        <v>0.19604005364191579</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -16668,16 +18244,16 @@
         <v>-17.436549484372335</v>
       </c>
       <c r="E240" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0000000000201652E-2</v>
+        <f t="shared" si="9"/>
+        <v>-4.0000000000201652E-2</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20345051562766514</v>
       </c>
       <c r="G240" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.16345051562746349</v>
+        <f t="shared" si="11"/>
+        <v>0.16345051562746349</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -16695,16 +18271,16 @@
         <v>-17.589862662410383</v>
       </c>
       <c r="E241" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999998026112E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999998026112E-3</v>
       </c>
       <c r="F241" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20013733758961649</v>
       </c>
       <c r="G241" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2101373375894191</v>
+        <f t="shared" si="11"/>
+        <v>0.2101373375894191</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -16722,16 +18298,16 @@
         <v>-17.817271842771646</v>
       </c>
       <c r="E242" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000198526E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000198526E-2</v>
       </c>
       <c r="F242" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20272815722835347</v>
       </c>
       <c r="G242" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18272815722815494</v>
+        <f t="shared" si="11"/>
+        <v>0.18272815722815494</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -16749,16 +18325,16 @@
         <v>-17.975058987399223</v>
       </c>
       <c r="E243" s="1">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999800622E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9999999999800622E-2</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20494101260077713</v>
       </c>
       <c r="G243" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.22494101260057775</v>
+        <f t="shared" si="11"/>
+        <v>0.22494101260057775</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -16776,16 +18352,16 @@
         <v>-18.197400649347287</v>
       </c>
       <c r="E244" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9895196601282805E-13</v>
+        <f t="shared" si="9"/>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20259935065271151</v>
       </c>
       <c r="G244" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.20259935065251256</v>
+        <f t="shared" si="11"/>
+        <v>0.20259935065251256</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -16803,16 +18379,16 @@
         <v>-18.416863554822328</v>
       </c>
       <c r="E245" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000202078E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000202078E-2</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20313644517767315</v>
       </c>
       <c r="G245" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18313644517747107</v>
+        <f t="shared" si="11"/>
+        <v>0.18313644517747107</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -16830,16 +18406,16 @@
         <v>-18.565399945509512</v>
       </c>
       <c r="E246" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.9999999999802185E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9999999999802185E-2</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20460005449048779</v>
       </c>
       <c r="G246" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.23460005449028998</v>
+        <f t="shared" si="11"/>
+        <v>0.23460005449028998</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -16857,16 +18433,16 @@
         <v>-18.780171559597392</v>
       </c>
       <c r="E247" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.9999999998026112E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.9999999998026112E-3</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20982844040260673</v>
       </c>
       <c r="G247" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.21982844040240934</v>
+        <f t="shared" si="11"/>
+        <v>0.21982844040240934</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -16884,16 +18460,16 @@
         <v>-18.999640064401973</v>
       </c>
       <c r="E248" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9895196601282805E-13</v>
+        <f t="shared" si="9"/>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20035993559802634</v>
       </c>
       <c r="G248" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.20035993559782739</v>
+        <f t="shared" si="11"/>
+        <v>0.20035993559782739</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -16911,16 +18487,16 @@
         <v>-19.205341227710363</v>
       </c>
       <c r="E249" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0000000000200515E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000000000200515E-2</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20465877228963691</v>
       </c>
       <c r="G249" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.1946587722894364</v>
+        <f t="shared" si="11"/>
+        <v>0.1946587722894364</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -16938,16 +18514,16 @@
         <v>-19.415774529032689</v>
       </c>
       <c r="E250" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0000000000202078E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0000000000202078E-2</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20422547096731236</v>
       </c>
       <c r="G250" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.18422547096711028</v>
+        <f t="shared" si="11"/>
+        <v>0.18422547096711028</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -16965,16 +18541,16 @@
         <v>-19.620047725038546</v>
       </c>
       <c r="E251" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000196536E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000196536E-2</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20995227496145219</v>
       </c>
       <c r="G251" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17995227496125565</v>
+        <f t="shared" si="11"/>
+        <v>0.17995227496125565</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -16992,16 +18568,16 @@
         <v>-19.821868661350805</v>
       </c>
       <c r="E252" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0000000000200089E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0000000000200089E-2</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.20813133864919564</v>
       </c>
       <c r="G252" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.17813133864899555</v>
+        <f t="shared" si="11"/>
+        <v>0.17813133864899555</v>
       </c>
     </row>
   </sheetData>
